--- a/medicine/Mort/Exécution_sans_jugement_sous_les_rois_maures_de_Grenade/Exécution_sans_jugement_sous_les_rois_maures_de_Grenade.xlsx
+++ b/medicine/Mort/Exécution_sans_jugement_sous_les_rois_maures_de_Grenade/Exécution_sans_jugement_sous_les_rois_maures_de_Grenade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cution_sans_jugement_sous_les_rois_maures_de_Grenade</t>
+          <t>Exécution_sans_jugement_sous_les_rois_maures_de_Grenade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exécution sans jugement sous les rois maures de Grenade est un tableau peint par Henri Regnault en 1870. Il est conservé au Musée d'Orsay à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cution_sans_jugement_sous_les_rois_maures_de_Grenade</t>
+          <t>Exécution_sans_jugement_sous_les_rois_maures_de_Grenade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire du tableau</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce tableau fait partie des trois œuvres que Regnault, grand prix de Rome, devait envoyer, suivant contrat, dans le cadre de son séjour de trois années à l'Académie de Rome afin d'être exposé à l'école des beaux-arts de Paris, où il fut finalement présenté en 1872, à titre posthume, puisque l'artiste est mort en janvier 1871[1]. Entretemps, du fait de la guerre, le tableau fut envoyé à Londres chez le galeriste Durant-Ruel qui représentait l'artiste. Le tableau fut ensuite acquis par l'État auprès des héritiers, et fut transféré au musée du Luxembourg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce tableau fait partie des trois œuvres que Regnault, grand prix de Rome, devait envoyer, suivant contrat, dans le cadre de son séjour de trois années à l'Académie de Rome afin d'être exposé à l'école des beaux-arts de Paris, où il fut finalement présenté en 1872, à titre posthume, puisque l'artiste est mort en janvier 1871. Entretemps, du fait de la guerre, le tableau fut envoyé à Londres chez le galeriste Durant-Ruel qui représentait l'artiste. Le tableau fut ensuite acquis par l'État auprès des héritiers, et fut transféré au musée du Luxembourg.
 Le thème s'inspire ici d'une légende remontant à l'époque Al-Andalus, le « massacre des Abencérages ». Le choix du format est assez inhabituel (3,05 m de haut sur 1,46 m de large). Il est conçu sur un fond architectural emprunté à l'Alhambra de Grenade où le peintre avait fait un séjour, avant de s'installer temporairement à Tanger où il avait acquis une maison.
 Cette toile fut commentée entre autres par Théophile Gautier qui l'admirait. 
 Regnault inscrivait ce tableau au commencement d'un cycle : il préparait Le Triomphe de l'islam, une toile restée à l'état d'esquisses, qui devait faire six mètres de long.
